--- a/biology/Botanique/Bryant_Park/Bryant_Park.xlsx
+++ b/biology/Botanique/Bryant_Park/Bryant_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bryant Park, d'une surface de 3,9 hectares, se trouve au cœur de l'arrondissement de Manhattan, dans le quartier de Midtown, le plus important quartier d'affaires de la ville de New York, aux États-Unis. Il s'agit d'un jardin à la française entouré de gratte-ciel. Sur le côté sud-est du parc se trouve la New York Public Library.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bryant Park est de forme rectangulaire. Il occupe l'espace situé entre la 40e et la 42e rue, et entre la Cinquième et la Sixième Avenue. Il est entouré de hauts immeubles, parmi lesquels l'American Radiator Building et la nouvelle Bank of America Tower. 
 Il a été surnommé le « petit Luxembourg » à cause de ses chaises, ses tables (Fermob) et son carrousel rappelant le jardin du Luxembourg à Paris.
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un parc a ouvert en 1843 sous le nom de Reservoir Park, en référence au réservoir Croton (en) qui se trouvait là. 
 En 1853, pour la première exposition universelle américaine, on y érigea un Crystal Palace inspiré de celui de Londres, qui fut détruit par un incendie cinq ans plus tard. 
@@ -582,7 +598,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les événements au Bryant Park :
 au mois de juin : le Bryant Park Film Festival ;
